--- a/freshness.xlsx
+++ b/freshness.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,6 +378,11 @@
           <t>After_Preprocessing</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>After_3_PCA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -396,6 +401,9 @@
       <c r="D2">
         <v>0.722</v>
       </c>
+      <c r="E2">
+        <v>0.717</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -414,6 +422,9 @@
       <c r="D3">
         <v>0.893</v>
       </c>
+      <c r="E3">
+        <v>0.731</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -432,6 +443,9 @@
       <c r="D4">
         <v>0.859</v>
       </c>
+      <c r="E4">
+        <v>0.729</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -450,6 +464,9 @@
       <c r="D5">
         <v>0.749</v>
       </c>
+      <c r="E5">
+        <v>0.707</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -468,6 +485,9 @@
       <c r="D6">
         <v>0.692</v>
       </c>
+      <c r="E6">
+        <v>0.6770000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -486,6 +506,9 @@
       <c r="D7">
         <v>0.907</v>
       </c>
+      <c r="E7">
+        <v>0.674</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -504,6 +527,9 @@
       <c r="D8">
         <v>0.923</v>
       </c>
+      <c r="E8">
+        <v>0.656</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -522,6 +548,9 @@
       <c r="D9">
         <v>0.731</v>
       </c>
+      <c r="E9">
+        <v>0.646</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -540,6 +569,9 @@
       <c r="D10">
         <v>0.711</v>
       </c>
+      <c r="E10">
+        <v>0.6870000000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -558,6 +590,9 @@
       <c r="D11">
         <v>0.909</v>
       </c>
+      <c r="E11">
+        <v>0.637</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,6 +611,9 @@
       <c r="D12">
         <v>0.877</v>
       </c>
+      <c r="E12">
+        <v>0.647</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -593,6 +631,9 @@
       </c>
       <c r="D13">
         <v>0.707</v>
+      </c>
+      <c r="E13">
+        <v>0.6840000000000001</v>
       </c>
     </row>
   </sheetData>
